--- a/media/output/result/bpic2015_4_f2_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
+++ b/media/output/result/bpic2015_4_f2_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
@@ -1114,10 +1114,10 @@
         <v>67</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1126,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.9016393442622952</v>
       </c>
     </row>
     <row r="25">
@@ -1143,10 +1143,10 @@
         <v>65</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.8983050847457628</v>
       </c>
     </row>
     <row r="26">
@@ -1172,10 +1172,10 @@
         <v>64</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="27">
@@ -1201,10 +1201,10 @@
         <v>62</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="28">
@@ -1230,10 +1230,10 @@
         <v>62</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="29">
@@ -1259,10 +1259,10 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.9009009009009009</v>
       </c>
     </row>
     <row r="30">
@@ -1288,10 +1288,10 @@
         <v>58</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.9056603773584906</v>
       </c>
     </row>
     <row r="31">

--- a/media/output/result/bpic2015_4_f2_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
+++ b/media/output/result/bpic2015_4_f2_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
@@ -1317,10 +1317,10 @@
         <v>57</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1329,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.9038461538461539</v>
       </c>
     </row>
     <row r="32">
@@ -1346,10 +1346,10 @@
         <v>56</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.9019607843137255</v>
       </c>
     </row>
     <row r="33">
@@ -1375,10 +1375,10 @@
         <v>56</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.9019607843137255</v>
       </c>
     </row>
     <row r="34">
@@ -1404,10 +1404,10 @@
         <v>56</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.9019607843137255</v>
       </c>
     </row>
     <row r="35">
